--- a/DATOS/RESULTADOS/ipc_inquilinos_ccaa.xlsx
+++ b/DATOS/RESULTADOS/ipc_inquilinos_ccaa.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1344"/>
+  <dimension ref="A1:F1429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29942,6 +29942,1876 @@
         <v>45839</v>
       </c>
     </row>
+    <row r="1345">
+      <c r="A1345">
+        <v>2025</v>
+      </c>
+      <c r="B1345">
+        <v>8</v>
+      </c>
+      <c r="C1345" t="inlineStr">
+        <is>
+          <t>01 Andalucía</t>
+        </is>
+      </c>
+      <c r="D1345">
+        <v>132.2665431353036</v>
+      </c>
+      <c r="E1345">
+        <v>124.4396466305788</v>
+      </c>
+      <c r="F1345" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346">
+        <v>2025</v>
+      </c>
+      <c r="B1346">
+        <v>8</v>
+      </c>
+      <c r="C1346" t="inlineStr">
+        <is>
+          <t>02 Aragón</t>
+        </is>
+      </c>
+      <c r="D1346">
+        <v>128.1057732439275</v>
+      </c>
+      <c r="E1346">
+        <v>123.8769897491458</v>
+      </c>
+      <c r="F1346" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347">
+        <v>2025</v>
+      </c>
+      <c r="B1347">
+        <v>8</v>
+      </c>
+      <c r="C1347" t="inlineStr">
+        <is>
+          <t>03 Asturias, Principado de</t>
+        </is>
+      </c>
+      <c r="D1347">
+        <v>128.2984641709109</v>
+      </c>
+      <c r="E1347">
+        <v>124.1769984956165</v>
+      </c>
+      <c r="F1347" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348">
+        <v>2025</v>
+      </c>
+      <c r="B1348">
+        <v>8</v>
+      </c>
+      <c r="C1348" t="inlineStr">
+        <is>
+          <t>04 Balears, Illes</t>
+        </is>
+      </c>
+      <c r="D1348">
+        <v>135.4108921008697</v>
+      </c>
+      <c r="E1348">
+        <v>125.5670382613955</v>
+      </c>
+      <c r="F1348" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349">
+        <v>2025</v>
+      </c>
+      <c r="B1349">
+        <v>8</v>
+      </c>
+      <c r="C1349" t="inlineStr">
+        <is>
+          <t>05 Canarias</t>
+        </is>
+      </c>
+      <c r="D1349">
+        <v>131.0574602837484</v>
+      </c>
+      <c r="E1349">
+        <v>122.7790149671138</v>
+      </c>
+      <c r="F1349" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350">
+        <v>2025</v>
+      </c>
+      <c r="B1350">
+        <v>8</v>
+      </c>
+      <c r="C1350" t="inlineStr">
+        <is>
+          <t>06 Cantabria</t>
+        </is>
+      </c>
+      <c r="D1350">
+        <v>134.2576844962786</v>
+      </c>
+      <c r="E1350">
+        <v>123.9117304007331</v>
+      </c>
+      <c r="F1350" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351">
+        <v>2025</v>
+      </c>
+      <c r="B1351">
+        <v>8</v>
+      </c>
+      <c r="C1351" t="inlineStr">
+        <is>
+          <t>07 Castilla y León</t>
+        </is>
+      </c>
+      <c r="D1351">
+        <v>128.9016099279903</v>
+      </c>
+      <c r="E1351">
+        <v>124.5030282181985</v>
+      </c>
+      <c r="F1351" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352">
+        <v>2025</v>
+      </c>
+      <c r="B1352">
+        <v>8</v>
+      </c>
+      <c r="C1352" t="inlineStr">
+        <is>
+          <t>08 Castilla - La Mancha</t>
+        </is>
+      </c>
+      <c r="D1352">
+        <v>132.6579328299411</v>
+      </c>
+      <c r="E1352">
+        <v>125.4059706174518</v>
+      </c>
+      <c r="F1352" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353">
+        <v>2025</v>
+      </c>
+      <c r="B1353">
+        <v>8</v>
+      </c>
+      <c r="C1353" t="inlineStr">
+        <is>
+          <t>09 Cataluña</t>
+        </is>
+      </c>
+      <c r="D1353">
+        <v>128.3465115658971</v>
+      </c>
+      <c r="E1353">
+        <v>122.8805985659358</v>
+      </c>
+      <c r="F1353" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354">
+        <v>2025</v>
+      </c>
+      <c r="B1354">
+        <v>8</v>
+      </c>
+      <c r="C1354" t="inlineStr">
+        <is>
+          <t>10 Comunitat Valenciana</t>
+        </is>
+      </c>
+      <c r="D1354">
+        <v>136.5524283008077</v>
+      </c>
+      <c r="E1354">
+        <v>124.3887708775876</v>
+      </c>
+      <c r="F1354" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355">
+        <v>2025</v>
+      </c>
+      <c r="B1355">
+        <v>8</v>
+      </c>
+      <c r="C1355" t="inlineStr">
+        <is>
+          <t>11 Extremadura</t>
+        </is>
+      </c>
+      <c r="D1355">
+        <v>128.8396888250454</v>
+      </c>
+      <c r="E1355">
+        <v>124.1272693087095</v>
+      </c>
+      <c r="F1355" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356">
+        <v>2025</v>
+      </c>
+      <c r="B1356">
+        <v>8</v>
+      </c>
+      <c r="C1356" t="inlineStr">
+        <is>
+          <t>12 Galicia</t>
+        </is>
+      </c>
+      <c r="D1356">
+        <v>131.0268921884093</v>
+      </c>
+      <c r="E1356">
+        <v>124.9297055472515</v>
+      </c>
+      <c r="F1356" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357">
+        <v>2025</v>
+      </c>
+      <c r="B1357">
+        <v>8</v>
+      </c>
+      <c r="C1357" t="inlineStr">
+        <is>
+          <t>13 Madrid, Comunidad de</t>
+        </is>
+      </c>
+      <c r="D1357">
+        <v>129.0235586880507</v>
+      </c>
+      <c r="E1357">
+        <v>121.3827364934796</v>
+      </c>
+      <c r="F1357" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358">
+        <v>2025</v>
+      </c>
+      <c r="B1358">
+        <v>8</v>
+      </c>
+      <c r="C1358" t="inlineStr">
+        <is>
+          <t>14 Murcia, Región de</t>
+        </is>
+      </c>
+      <c r="D1358">
+        <v>130.4611807417621</v>
+      </c>
+      <c r="E1358">
+        <v>123.3262215746474</v>
+      </c>
+      <c r="F1358" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359">
+        <v>2025</v>
+      </c>
+      <c r="B1359">
+        <v>8</v>
+      </c>
+      <c r="C1359" t="inlineStr">
+        <is>
+          <t>15 Navarra, Comunidad Foral de</t>
+        </is>
+      </c>
+      <c r="D1359">
+        <v>127.9170984736136</v>
+      </c>
+      <c r="E1359">
+        <v>124.508627078484</v>
+      </c>
+      <c r="F1359" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360">
+        <v>2025</v>
+      </c>
+      <c r="B1360">
+        <v>8</v>
+      </c>
+      <c r="C1360" t="inlineStr">
+        <is>
+          <t>16 País Vasco</t>
+        </is>
+      </c>
+      <c r="D1360">
+        <v>127.7838037647172</v>
+      </c>
+      <c r="E1360">
+        <v>124.8626876601977</v>
+      </c>
+      <c r="F1360" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361">
+        <v>2025</v>
+      </c>
+      <c r="B1361">
+        <v>8</v>
+      </c>
+      <c r="C1361" t="inlineStr">
+        <is>
+          <t>17 Rioja, La</t>
+        </is>
+      </c>
+      <c r="D1361">
+        <v>129.0564354809498</v>
+      </c>
+      <c r="E1361">
+        <v>123.716814159292</v>
+      </c>
+      <c r="F1361" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362">
+        <v>2025</v>
+      </c>
+      <c r="B1362">
+        <v>9</v>
+      </c>
+      <c r="C1362" t="inlineStr">
+        <is>
+          <t>01 Andalucía</t>
+        </is>
+      </c>
+      <c r="D1362">
+        <v>131.8369378551769</v>
+      </c>
+      <c r="E1362">
+        <v>124.2279170186802</v>
+      </c>
+      <c r="F1362" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363">
+        <v>2025</v>
+      </c>
+      <c r="B1363">
+        <v>9</v>
+      </c>
+      <c r="C1363" t="inlineStr">
+        <is>
+          <t>02 Aragón</t>
+        </is>
+      </c>
+      <c r="D1363">
+        <v>127.2325281317039</v>
+      </c>
+      <c r="E1363">
+        <v>123.5071672639387</v>
+      </c>
+      <c r="F1363" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364">
+        <v>2025</v>
+      </c>
+      <c r="B1364">
+        <v>9</v>
+      </c>
+      <c r="C1364" t="inlineStr">
+        <is>
+          <t>03 Asturias, Principado de</t>
+        </is>
+      </c>
+      <c r="D1364">
+        <v>127.1196946656615</v>
+      </c>
+      <c r="E1364">
+        <v>123.1052549670592</v>
+      </c>
+      <c r="F1364" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365">
+        <v>2025</v>
+      </c>
+      <c r="B1365">
+        <v>9</v>
+      </c>
+      <c r="C1365" t="inlineStr">
+        <is>
+          <t>04 Balears, Illes</t>
+        </is>
+      </c>
+      <c r="D1365">
+        <v>134.3888016721959</v>
+      </c>
+      <c r="E1365">
+        <v>124.8089015882286</v>
+      </c>
+      <c r="F1365" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366">
+        <v>2025</v>
+      </c>
+      <c r="B1366">
+        <v>9</v>
+      </c>
+      <c r="C1366" t="inlineStr">
+        <is>
+          <t>05 Canarias</t>
+        </is>
+      </c>
+      <c r="D1366">
+        <v>130.3654989910896</v>
+      </c>
+      <c r="E1366">
+        <v>121.9731731317002</v>
+      </c>
+      <c r="F1366" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367">
+        <v>2025</v>
+      </c>
+      <c r="B1367">
+        <v>9</v>
+      </c>
+      <c r="C1367" t="inlineStr">
+        <is>
+          <t>06 Cantabria</t>
+        </is>
+      </c>
+      <c r="D1367">
+        <v>131.7455868007009</v>
+      </c>
+      <c r="E1367">
+        <v>122.9911272181954</v>
+      </c>
+      <c r="F1367" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368">
+        <v>2025</v>
+      </c>
+      <c r="B1368">
+        <v>9</v>
+      </c>
+      <c r="C1368" t="inlineStr">
+        <is>
+          <t>07 Castilla y León</t>
+        </is>
+      </c>
+      <c r="D1368">
+        <v>128.26754526543</v>
+      </c>
+      <c r="E1368">
+        <v>124.0818921933473</v>
+      </c>
+      <c r="F1368" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369">
+        <v>2025</v>
+      </c>
+      <c r="B1369">
+        <v>9</v>
+      </c>
+      <c r="C1369" t="inlineStr">
+        <is>
+          <t>08 Castilla - La Mancha</t>
+        </is>
+      </c>
+      <c r="D1369">
+        <v>131.9954944340166</v>
+      </c>
+      <c r="E1369">
+        <v>125.1016887122915</v>
+      </c>
+      <c r="F1369" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370">
+        <v>2025</v>
+      </c>
+      <c r="B1370">
+        <v>9</v>
+      </c>
+      <c r="C1370" t="inlineStr">
+        <is>
+          <t>09 Cataluña</t>
+        </is>
+      </c>
+      <c r="D1370">
+        <v>128.9313713570438</v>
+      </c>
+      <c r="E1370">
+        <v>122.2643666216357</v>
+      </c>
+      <c r="F1370" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371">
+        <v>2025</v>
+      </c>
+      <c r="B1371">
+        <v>9</v>
+      </c>
+      <c r="C1371" t="inlineStr">
+        <is>
+          <t>10 Comunitat Valenciana</t>
+        </is>
+      </c>
+      <c r="D1371">
+        <v>135.8637934138914</v>
+      </c>
+      <c r="E1371">
+        <v>123.9077012786872</v>
+      </c>
+      <c r="F1371" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372">
+        <v>2025</v>
+      </c>
+      <c r="B1372">
+        <v>9</v>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>11 Extremadura</t>
+        </is>
+      </c>
+      <c r="D1372">
+        <v>128.4252475118802</v>
+      </c>
+      <c r="E1372">
+        <v>123.6603505546619</v>
+      </c>
+      <c r="F1372" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373">
+        <v>2025</v>
+      </c>
+      <c r="B1373">
+        <v>9</v>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>12 Galicia</t>
+        </is>
+      </c>
+      <c r="D1373">
+        <v>130.0690341280781</v>
+      </c>
+      <c r="E1373">
+        <v>124.414387105541</v>
+      </c>
+      <c r="F1373" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374">
+        <v>2025</v>
+      </c>
+      <c r="B1374">
+        <v>9</v>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>13 Madrid, Comunidad de</t>
+        </is>
+      </c>
+      <c r="D1374">
+        <v>130.0045918015521</v>
+      </c>
+      <c r="E1374">
+        <v>121.754295176982</v>
+      </c>
+      <c r="F1374" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375">
+        <v>2025</v>
+      </c>
+      <c r="B1375">
+        <v>9</v>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t>14 Murcia, Región de</t>
+        </is>
+      </c>
+      <c r="D1375">
+        <v>129.5376454611755</v>
+      </c>
+      <c r="E1375">
+        <v>122.9026382890149</v>
+      </c>
+      <c r="F1375" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376">
+        <v>2025</v>
+      </c>
+      <c r="B1376">
+        <v>9</v>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t>15 Navarra, Comunidad Foral de</t>
+        </is>
+      </c>
+      <c r="D1376">
+        <v>126.9365815928964</v>
+      </c>
+      <c r="E1376">
+        <v>123.6391344738683</v>
+      </c>
+      <c r="F1376" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377">
+        <v>2025</v>
+      </c>
+      <c r="B1377">
+        <v>9</v>
+      </c>
+      <c r="C1377" t="inlineStr">
+        <is>
+          <t>16 País Vasco</t>
+        </is>
+      </c>
+      <c r="D1377">
+        <v>127.5199392652501</v>
+      </c>
+      <c r="E1377">
+        <v>124.4923366637025</v>
+      </c>
+      <c r="F1377" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378">
+        <v>2025</v>
+      </c>
+      <c r="B1378">
+        <v>9</v>
+      </c>
+      <c r="C1378" t="inlineStr">
+        <is>
+          <t>17 Rioja, La</t>
+        </is>
+      </c>
+      <c r="D1378">
+        <v>128.3604623696053</v>
+      </c>
+      <c r="E1378">
+        <v>123.237896928683</v>
+      </c>
+      <c r="F1378" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379">
+        <v>2025</v>
+      </c>
+      <c r="B1379">
+        <v>10</v>
+      </c>
+      <c r="C1379" t="inlineStr">
+        <is>
+          <t>01 Andalucía</t>
+        </is>
+      </c>
+      <c r="D1379">
+        <v>132.7555366050456</v>
+      </c>
+      <c r="E1379">
+        <v>125.3303712047728</v>
+      </c>
+      <c r="F1379" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380">
+        <v>2025</v>
+      </c>
+      <c r="B1380">
+        <v>10</v>
+      </c>
+      <c r="C1380" t="inlineStr">
+        <is>
+          <t>02 Aragón</t>
+        </is>
+      </c>
+      <c r="D1380">
+        <v>128.2940736365455</v>
+      </c>
+      <c r="E1380">
+        <v>124.4603716976415</v>
+      </c>
+      <c r="F1380" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381">
+        <v>2025</v>
+      </c>
+      <c r="B1381">
+        <v>10</v>
+      </c>
+      <c r="C1381" t="inlineStr">
+        <is>
+          <t>03 Asturias, Principado de</t>
+        </is>
+      </c>
+      <c r="D1381">
+        <v>127.5858311171432</v>
+      </c>
+      <c r="E1381">
+        <v>123.6758831768429</v>
+      </c>
+      <c r="F1381" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382">
+        <v>2025</v>
+      </c>
+      <c r="B1382">
+        <v>10</v>
+      </c>
+      <c r="C1382" t="inlineStr">
+        <is>
+          <t>04 Balears, Illes</t>
+        </is>
+      </c>
+      <c r="D1382">
+        <v>134.582785462624</v>
+      </c>
+      <c r="E1382">
+        <v>125.3490870032223</v>
+      </c>
+      <c r="F1382" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383">
+        <v>2025</v>
+      </c>
+      <c r="B1383">
+        <v>10</v>
+      </c>
+      <c r="C1383" t="inlineStr">
+        <is>
+          <t>05 Canarias</t>
+        </is>
+      </c>
+      <c r="D1383">
+        <v>131.4683909000125</v>
+      </c>
+      <c r="E1383">
+        <v>123.0348542130613</v>
+      </c>
+      <c r="F1383" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384">
+        <v>2025</v>
+      </c>
+      <c r="B1384">
+        <v>10</v>
+      </c>
+      <c r="C1384" t="inlineStr">
+        <is>
+          <t>06 Cantabria</t>
+        </is>
+      </c>
+      <c r="D1384">
+        <v>131.4738521316051</v>
+      </c>
+      <c r="E1384">
+        <v>124.0575272848454</v>
+      </c>
+      <c r="F1384" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385">
+        <v>2025</v>
+      </c>
+      <c r="B1385">
+        <v>10</v>
+      </c>
+      <c r="C1385" t="inlineStr">
+        <is>
+          <t>07 Castilla y León</t>
+        </is>
+      </c>
+      <c r="D1385">
+        <v>129.2986127130943</v>
+      </c>
+      <c r="E1385">
+        <v>124.9742002063984</v>
+      </c>
+      <c r="F1385" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386">
+        <v>2025</v>
+      </c>
+      <c r="B1386">
+        <v>10</v>
+      </c>
+      <c r="C1386" t="inlineStr">
+        <is>
+          <t>08 Castilla - La Mancha</t>
+        </is>
+      </c>
+      <c r="D1386">
+        <v>132.8931540172211</v>
+      </c>
+      <c r="E1386">
+        <v>126.2037956814974</v>
+      </c>
+      <c r="F1386" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387">
+        <v>2025</v>
+      </c>
+      <c r="B1387">
+        <v>10</v>
+      </c>
+      <c r="C1387" t="inlineStr">
+        <is>
+          <t>09 Cataluña</t>
+        </is>
+      </c>
+      <c r="D1387">
+        <v>129.3540843253421</v>
+      </c>
+      <c r="E1387">
+        <v>122.7912293463577</v>
+      </c>
+      <c r="F1387" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388">
+        <v>2025</v>
+      </c>
+      <c r="B1388">
+        <v>10</v>
+      </c>
+      <c r="C1388" t="inlineStr">
+        <is>
+          <t>10 Comunitat Valenciana</t>
+        </is>
+      </c>
+      <c r="D1388">
+        <v>136.2827499854665</v>
+      </c>
+      <c r="E1388">
+        <v>124.7105252197093</v>
+      </c>
+      <c r="F1388" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389">
+        <v>2025</v>
+      </c>
+      <c r="B1389">
+        <v>10</v>
+      </c>
+      <c r="C1389" t="inlineStr">
+        <is>
+          <t>11 Extremadura</t>
+        </is>
+      </c>
+      <c r="D1389">
+        <v>129.0181028646748</v>
+      </c>
+      <c r="E1389">
+        <v>124.7258027451062</v>
+      </c>
+      <c r="F1389" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390">
+        <v>2025</v>
+      </c>
+      <c r="B1390">
+        <v>10</v>
+      </c>
+      <c r="C1390" t="inlineStr">
+        <is>
+          <t>12 Galicia</t>
+        </is>
+      </c>
+      <c r="D1390">
+        <v>130.2870769155195</v>
+      </c>
+      <c r="E1390">
+        <v>125.221336064974</v>
+      </c>
+      <c r="F1390" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391">
+        <v>2025</v>
+      </c>
+      <c r="B1391">
+        <v>10</v>
+      </c>
+      <c r="C1391" t="inlineStr">
+        <is>
+          <t>13 Madrid, Comunidad de</t>
+        </is>
+      </c>
+      <c r="D1391">
+        <v>131.117740253923</v>
+      </c>
+      <c r="E1391">
+        <v>122.7147588490996</v>
+      </c>
+      <c r="F1391" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392">
+        <v>2025</v>
+      </c>
+      <c r="B1392">
+        <v>10</v>
+      </c>
+      <c r="C1392" t="inlineStr">
+        <is>
+          <t>14 Murcia, Región de</t>
+        </is>
+      </c>
+      <c r="D1392">
+        <v>129.7889563009421</v>
+      </c>
+      <c r="E1392">
+        <v>123.4979445282822</v>
+      </c>
+      <c r="F1392" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393">
+        <v>2025</v>
+      </c>
+      <c r="B1393">
+        <v>10</v>
+      </c>
+      <c r="C1393" t="inlineStr">
+        <is>
+          <t>15 Navarra, Comunidad Foral de</t>
+        </is>
+      </c>
+      <c r="D1393">
+        <v>127.6318405714391</v>
+      </c>
+      <c r="E1393">
+        <v>124.8718724883354</v>
+      </c>
+      <c r="F1393" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394">
+        <v>2025</v>
+      </c>
+      <c r="B1394">
+        <v>10</v>
+      </c>
+      <c r="C1394" t="inlineStr">
+        <is>
+          <t>16 País Vasco</t>
+        </is>
+      </c>
+      <c r="D1394">
+        <v>128.0377685757889</v>
+      </c>
+      <c r="E1394">
+        <v>125.2267615211592</v>
+      </c>
+      <c r="F1394" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395">
+        <v>2025</v>
+      </c>
+      <c r="B1395">
+        <v>10</v>
+      </c>
+      <c r="C1395" t="inlineStr">
+        <is>
+          <t>17 Rioja, La</t>
+        </is>
+      </c>
+      <c r="D1395">
+        <v>129.0253541216395</v>
+      </c>
+      <c r="E1395">
+        <v>124.0187402394586</v>
+      </c>
+      <c r="F1395" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396">
+        <v>2025</v>
+      </c>
+      <c r="B1396">
+        <v>11</v>
+      </c>
+      <c r="C1396" t="inlineStr">
+        <is>
+          <t>01 Andalucía</t>
+        </is>
+      </c>
+      <c r="D1396">
+        <v>133.4690644803503</v>
+      </c>
+      <c r="E1396">
+        <v>125.3053391324301</v>
+      </c>
+      <c r="F1396" s="2">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397">
+        <v>2025</v>
+      </c>
+      <c r="B1397">
+        <v>11</v>
+      </c>
+      <c r="C1397" t="inlineStr">
+        <is>
+          <t>02 Aragón</t>
+        </is>
+      </c>
+      <c r="D1397">
+        <v>128.7677863820969</v>
+      </c>
+      <c r="E1397">
+        <v>124.7093507792316</v>
+      </c>
+      <c r="F1397" s="2">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398">
+        <v>2025</v>
+      </c>
+      <c r="B1398">
+        <v>11</v>
+      </c>
+      <c r="C1398" t="inlineStr">
+        <is>
+          <t>03 Asturias, Principado de</t>
+        </is>
+      </c>
+      <c r="D1398">
+        <v>128.016543514231</v>
+      </c>
+      <c r="E1398">
+        <v>123.8522591689578</v>
+      </c>
+      <c r="F1398" s="2">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399">
+        <v>2025</v>
+      </c>
+      <c r="B1399">
+        <v>11</v>
+      </c>
+      <c r="C1399" t="inlineStr">
+        <is>
+          <t>04 Balears, Illes</t>
+        </is>
+      </c>
+      <c r="D1399">
+        <v>134.4345675255269</v>
+      </c>
+      <c r="E1399">
+        <v>125.1707632465352</v>
+      </c>
+      <c r="F1399" s="2">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400">
+        <v>2025</v>
+      </c>
+      <c r="B1400">
+        <v>11</v>
+      </c>
+      <c r="C1400" t="inlineStr">
+        <is>
+          <t>05 Canarias</t>
+        </is>
+      </c>
+      <c r="D1400">
+        <v>131.6582955669449</v>
+      </c>
+      <c r="E1400">
+        <v>123.2585840799627</v>
+      </c>
+      <c r="F1400" s="2">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401">
+        <v>2025</v>
+      </c>
+      <c r="B1401">
+        <v>11</v>
+      </c>
+      <c r="C1401" t="inlineStr">
+        <is>
+          <t>06 Cantabria</t>
+        </is>
+      </c>
+      <c r="D1401">
+        <v>130.9478139051851</v>
+      </c>
+      <c r="E1401">
+        <v>124.4730484045655</v>
+      </c>
+      <c r="F1401" s="2">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402">
+        <v>2025</v>
+      </c>
+      <c r="B1402">
+        <v>11</v>
+      </c>
+      <c r="C1402" t="inlineStr">
+        <is>
+          <t>07 Castilla y León</t>
+        </is>
+      </c>
+      <c r="D1402">
+        <v>130.032822056741</v>
+      </c>
+      <c r="E1402">
+        <v>125.518341307815</v>
+      </c>
+      <c r="F1402" s="2">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403">
+        <v>2025</v>
+      </c>
+      <c r="B1403">
+        <v>11</v>
+      </c>
+      <c r="C1403" t="inlineStr">
+        <is>
+          <t>08 Castilla - La Mancha</t>
+        </is>
+      </c>
+      <c r="D1403">
+        <v>133.4904220008749</v>
+      </c>
+      <c r="E1403">
+        <v>126.4463846917969</v>
+      </c>
+      <c r="F1403" s="2">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404">
+        <v>2025</v>
+      </c>
+      <c r="B1404">
+        <v>11</v>
+      </c>
+      <c r="C1404" t="inlineStr">
+        <is>
+          <t>09 Cataluña</t>
+        </is>
+      </c>
+      <c r="D1404">
+        <v>128.8743604937374</v>
+      </c>
+      <c r="E1404">
+        <v>123.1009040839655</v>
+      </c>
+      <c r="F1404" s="2">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405">
+        <v>2025</v>
+      </c>
+      <c r="B1405">
+        <v>11</v>
+      </c>
+      <c r="C1405" t="inlineStr">
+        <is>
+          <t>10 Comunitat Valenciana</t>
+        </is>
+      </c>
+      <c r="D1405">
+        <v>136.7796155463695</v>
+      </c>
+      <c r="E1405">
+        <v>124.9947936190595</v>
+      </c>
+      <c r="F1405" s="2">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406">
+        <v>2025</v>
+      </c>
+      <c r="B1406">
+        <v>11</v>
+      </c>
+      <c r="C1406" t="inlineStr">
+        <is>
+          <t>11 Extremadura</t>
+        </is>
+      </c>
+      <c r="D1406">
+        <v>129.4856167006727</v>
+      </c>
+      <c r="E1406">
+        <v>125.2700190110097</v>
+      </c>
+      <c r="F1406" s="2">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407">
+        <v>2025</v>
+      </c>
+      <c r="B1407">
+        <v>11</v>
+      </c>
+      <c r="C1407" t="inlineStr">
+        <is>
+          <t>12 Galicia</t>
+        </is>
+      </c>
+      <c r="D1407">
+        <v>130.7269064930502</v>
+      </c>
+      <c r="E1407">
+        <v>125.7314281533203</v>
+      </c>
+      <c r="F1407" s="2">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408">
+        <v>2025</v>
+      </c>
+      <c r="B1408">
+        <v>11</v>
+      </c>
+      <c r="C1408" t="inlineStr">
+        <is>
+          <t>13 Madrid, Comunidad de</t>
+        </is>
+      </c>
+      <c r="D1408">
+        <v>131.0536516922348</v>
+      </c>
+      <c r="E1408">
+        <v>122.8648312978679</v>
+      </c>
+      <c r="F1408" s="2">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409">
+        <v>2025</v>
+      </c>
+      <c r="B1409">
+        <v>11</v>
+      </c>
+      <c r="C1409" t="inlineStr">
+        <is>
+          <t>14 Murcia, Región de</t>
+        </is>
+      </c>
+      <c r="D1409">
+        <v>130.3819696918303</v>
+      </c>
+      <c r="E1409">
+        <v>124.1827548524744</v>
+      </c>
+      <c r="F1409" s="2">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410">
+        <v>2025</v>
+      </c>
+      <c r="B1410">
+        <v>11</v>
+      </c>
+      <c r="C1410" t="inlineStr">
+        <is>
+          <t>15 Navarra, Comunidad Foral de</t>
+        </is>
+      </c>
+      <c r="D1410">
+        <v>128.1062458922479</v>
+      </c>
+      <c r="E1410">
+        <v>125.1129922862541</v>
+      </c>
+      <c r="F1410" s="2">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411">
+        <v>2025</v>
+      </c>
+      <c r="B1411">
+        <v>11</v>
+      </c>
+      <c r="C1411" t="inlineStr">
+        <is>
+          <t>16 País Vasco</t>
+        </is>
+      </c>
+      <c r="D1411">
+        <v>127.9388915177132</v>
+      </c>
+      <c r="E1411">
+        <v>125.4809855102788</v>
+      </c>
+      <c r="F1411" s="2">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412">
+        <v>2025</v>
+      </c>
+      <c r="B1412">
+        <v>11</v>
+      </c>
+      <c r="C1412" t="inlineStr">
+        <is>
+          <t>17 Rioja, La</t>
+        </is>
+      </c>
+      <c r="D1412">
+        <v>128.9736923177092</v>
+      </c>
+      <c r="E1412">
+        <v>124.2935970848516</v>
+      </c>
+      <c r="F1412" s="2">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413">
+        <v>2025</v>
+      </c>
+      <c r="B1413">
+        <v>12</v>
+      </c>
+      <c r="C1413" t="inlineStr">
+        <is>
+          <t>01 Andalucía</t>
+        </is>
+      </c>
+      <c r="D1413">
+        <v>134.5398171321983</v>
+      </c>
+      <c r="E1413">
+        <v>125.7068952929274</v>
+      </c>
+      <c r="F1413" s="2">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414">
+        <v>2025</v>
+      </c>
+      <c r="B1414">
+        <v>12</v>
+      </c>
+      <c r="C1414" t="inlineStr">
+        <is>
+          <t>02 Aragón</t>
+        </is>
+      </c>
+      <c r="D1414">
+        <v>129.582570992</v>
+      </c>
+      <c r="E1414">
+        <v>125.0270855904659</v>
+      </c>
+      <c r="F1414" s="2">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415">
+        <v>2025</v>
+      </c>
+      <c r="B1415">
+        <v>12</v>
+      </c>
+      <c r="C1415" t="inlineStr">
+        <is>
+          <t>03 Asturias, Principado de</t>
+        </is>
+      </c>
+      <c r="D1415">
+        <v>128.9425120153127</v>
+      </c>
+      <c r="E1415">
+        <v>124.2838615967215</v>
+      </c>
+      <c r="F1415" s="2">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416">
+        <v>2025</v>
+      </c>
+      <c r="B1416">
+        <v>12</v>
+      </c>
+      <c r="C1416" t="inlineStr">
+        <is>
+          <t>04 Balears, Illes</t>
+        </is>
+      </c>
+      <c r="D1416">
+        <v>134.6647031819082</v>
+      </c>
+      <c r="E1416">
+        <v>125.4856976004505</v>
+      </c>
+      <c r="F1416" s="2">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417">
+        <v>2025</v>
+      </c>
+      <c r="B1417">
+        <v>12</v>
+      </c>
+      <c r="C1417" t="inlineStr">
+        <is>
+          <t>05 Canarias</t>
+        </is>
+      </c>
+      <c r="D1417">
+        <v>132.7377860242069</v>
+      </c>
+      <c r="E1417">
+        <v>124.0851416437931</v>
+      </c>
+      <c r="F1417" s="2">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418">
+        <v>2025</v>
+      </c>
+      <c r="B1418">
+        <v>12</v>
+      </c>
+      <c r="C1418" t="inlineStr">
+        <is>
+          <t>06 Cantabria</t>
+        </is>
+      </c>
+      <c r="D1418">
+        <v>131.6363320504378</v>
+      </c>
+      <c r="E1418">
+        <v>124.9593851537116</v>
+      </c>
+      <c r="F1418" s="2">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419">
+        <v>2025</v>
+      </c>
+      <c r="B1419">
+        <v>12</v>
+      </c>
+      <c r="C1419" t="inlineStr">
+        <is>
+          <t>07 Castilla y León</t>
+        </is>
+      </c>
+      <c r="D1419">
+        <v>130.830156593833</v>
+      </c>
+      <c r="E1419">
+        <v>125.8331509105503</v>
+      </c>
+      <c r="F1419" s="2">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420">
+        <v>2025</v>
+      </c>
+      <c r="B1420">
+        <v>12</v>
+      </c>
+      <c r="C1420" t="inlineStr">
+        <is>
+          <t>08 Castilla - La Mancha</t>
+        </is>
+      </c>
+      <c r="D1420">
+        <v>134.3590314445956</v>
+      </c>
+      <c r="E1420">
+        <v>127.0204423066869</v>
+      </c>
+      <c r="F1420" s="2">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421">
+        <v>2025</v>
+      </c>
+      <c r="B1421">
+        <v>12</v>
+      </c>
+      <c r="C1421" t="inlineStr">
+        <is>
+          <t>09 Cataluña</t>
+        </is>
+      </c>
+      <c r="D1421">
+        <v>129.0008079600236</v>
+      </c>
+      <c r="E1421">
+        <v>123.4843603865738</v>
+      </c>
+      <c r="F1421" s="2">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422">
+        <v>2025</v>
+      </c>
+      <c r="B1422">
+        <v>12</v>
+      </c>
+      <c r="C1422" t="inlineStr">
+        <is>
+          <t>10 Comunitat Valenciana</t>
+        </is>
+      </c>
+      <c r="D1422">
+        <v>137.2595777363276</v>
+      </c>
+      <c r="E1422">
+        <v>125.2561539422717</v>
+      </c>
+      <c r="F1422" s="2">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423">
+        <v>2025</v>
+      </c>
+      <c r="B1423">
+        <v>12</v>
+      </c>
+      <c r="C1423" t="inlineStr">
+        <is>
+          <t>11 Extremadura</t>
+        </is>
+      </c>
+      <c r="D1423">
+        <v>130.0223201595938</v>
+      </c>
+      <c r="E1423">
+        <v>125.5134017172582</v>
+      </c>
+      <c r="F1423" s="2">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424">
+        <v>2025</v>
+      </c>
+      <c r="B1424">
+        <v>12</v>
+      </c>
+      <c r="C1424" t="inlineStr">
+        <is>
+          <t>12 Galicia</t>
+        </is>
+      </c>
+      <c r="D1424">
+        <v>131.6286719598757</v>
+      </c>
+      <c r="E1424">
+        <v>125.9227126864501</v>
+      </c>
+      <c r="F1424" s="2">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425">
+        <v>2025</v>
+      </c>
+      <c r="B1425">
+        <v>12</v>
+      </c>
+      <c r="C1425" t="inlineStr">
+        <is>
+          <t>13 Madrid, Comunidad de</t>
+        </is>
+      </c>
+      <c r="D1425">
+        <v>131.2603399786388</v>
+      </c>
+      <c r="E1425">
+        <v>123.5593044918236</v>
+      </c>
+      <c r="F1425" s="2">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426">
+        <v>2025</v>
+      </c>
+      <c r="B1426">
+        <v>12</v>
+      </c>
+      <c r="C1426" t="inlineStr">
+        <is>
+          <t>14 Murcia, Región de</t>
+        </is>
+      </c>
+      <c r="D1426">
+        <v>131.2411041061891</v>
+      </c>
+      <c r="E1426">
+        <v>124.5480564083884</v>
+      </c>
+      <c r="F1426" s="2">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427">
+        <v>2025</v>
+      </c>
+      <c r="B1427">
+        <v>12</v>
+      </c>
+      <c r="C1427" t="inlineStr">
+        <is>
+          <t>15 Navarra, Comunidad Foral de</t>
+        </is>
+      </c>
+      <c r="D1427">
+        <v>129.4187163156633</v>
+      </c>
+      <c r="E1427">
+        <v>125.3426301890337</v>
+      </c>
+      <c r="F1427" s="2">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428">
+        <v>2025</v>
+      </c>
+      <c r="B1428">
+        <v>12</v>
+      </c>
+      <c r="C1428" t="inlineStr">
+        <is>
+          <t>16 País Vasco</t>
+        </is>
+      </c>
+      <c r="D1428">
+        <v>128.4212773710217</v>
+      </c>
+      <c r="E1428">
+        <v>125.7728723126014</v>
+      </c>
+      <c r="F1428" s="2">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429">
+        <v>2025</v>
+      </c>
+      <c r="B1429">
+        <v>12</v>
+      </c>
+      <c r="C1429" t="inlineStr">
+        <is>
+          <t>17 Rioja, La</t>
+        </is>
+      </c>
+      <c r="D1429">
+        <v>130.1878071403681</v>
+      </c>
+      <c r="E1429">
+        <v>125.056741280583</v>
+      </c>
+      <c r="F1429" s="2">
+        <v>45992</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
